--- a/PCB/BasisStation/Stückliste.xlsx
+++ b/PCB/BasisStation/Stückliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\SmartHomeSystemBasisStation\PCB\BasisStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A0ED18-781D-4A75-93A3-FCD9AC18F42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB09B7-866E-4E20-82AA-F787793ACEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5895" yWindow="2370" windowWidth="43200" windowHeight="11385" xr2:uid="{7AFFD63B-2ED5-48D0-BE70-0720A8774056}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Hersteller</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>CW00522K00JB12</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>10uF</t>
   </si>
 </sst>
 </file>
@@ -125,10 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,109 +473,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A4607E-2DCD-46F0-9B5F-9BB972707DEA}">
-  <dimension ref="A4:H7"/>
+  <dimension ref="A4:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>5.14</v>
       </c>
-      <c r="F5" s="1">
-        <f>D5*E5</f>
+      <c r="G5" s="1">
+        <f>E5*F5</f>
         <v>5.14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.34</v>
       </c>
-      <c r="F6" s="1">
-        <f>D6*E6</f>
+      <c r="G6" s="1">
+        <f>E6*F6</f>
         <v>1.36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2.98</v>
       </c>
-      <c r="F7" s="1">
-        <f>D7*E7</f>
+      <c r="G7" s="1">
+        <f>E7*F7</f>
         <v>2.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>870585373001</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="G8" s="1">
+        <f>E8*F8</f>
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>870585373001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="G9" s="1">
+        <f>E9*F9</f>
+        <v>1.24</v>
+      </c>
+      <c r="I9" s="1">
+        <f>SUM(G5:G9)</f>
+        <v>15.64</v>
       </c>
     </row>
   </sheetData>
